--- a/test_ceh05_.xlsx
+++ b/test_ceh05_.xlsx
@@ -8995,11 +8995,11 @@
   <dimension ref="A1:P523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="57.7109375" style="27" customWidth="1"/>
